--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\Advance Task\Nunit\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644BF240-4993-4D6A-8E45-E2137275A8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2BB2C-0D09-498A-841C-49762EC43912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="ManageListings" sheetId="2" r:id="rId3"/>
+    <sheet name="Language" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Url</t>
   </si>
@@ -142,6 +143,12 @@
   </si>
   <si>
     <t>Testing123</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Hindi</t>
   </si>
 </sst>
 </file>
@@ -655,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -783,4 +790,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B75D315-B8B3-4BA8-815F-818C759AEA61}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>